--- a/sprints/15_04-29_04.xlsx
+++ b/sprints/15_04-29_04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>PLANEJAMENTO 11 abr - 20 abr</t>
   </si>
@@ -22,13 +22,20 @@
     <t>Tarefa</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Laís Fiori</t>
   </si>
   <si>
     <t>Backend das telas Tópicos e Atividades</t>
   </si>
   <si>
-    <t>Entregas APS</t>
+    <t>Entregas AP2 
++ Figma</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
   </si>
   <si>
     <t>Luma Ramos</t>
@@ -40,9 +47,6 @@
     <t>Backend das telas Login e Cadastro</t>
   </si>
   <si>
-    <t>Entregas AP2</t>
-  </si>
-  <si>
     <t>Pedro Pimenta</t>
   </si>
   <si>
@@ -50,9 +54,6 @@
   </si>
   <si>
     <t>Frontend da tela Inicial</t>
-  </si>
-  <si>
-    <t>Entregas GN2</t>
   </si>
   <si>
     <t>Ana Luiza Aguiar</t>
@@ -85,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +105,14 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -114,11 +121,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -127,16 +140,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -173,12 +179,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -190,22 +204,31 @@
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,6 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +457,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -442,74 +467,93 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="10"/>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:C8"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sprints/15_04-29_04.xlsx
+++ b/sprints/15_04-29_04.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laisw\OneDrive\Documentos\Laís\ProjetoTCC\INI3A-EQ2\sprints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEEAA9E-20C4-4303-82C7-DD0261D16B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>PLANEJAMENTO 11 abr - 20 abr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Responsável</t>
   </si>
@@ -60,29 +66,50 @@
   </si>
   <si>
     <t>Frontend das telas Login e Cadastro</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO 15 abr - 29 abr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,7 +118,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,27 +140,39 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -143,6 +182,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -157,6 +197,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -168,6 +209,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -176,9 +219,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -187,63 +232,73 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -433,127 +488,141 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="31.25"/>
-    <col customWidth="1" min="3" max="3" width="12.5"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:C8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:C8"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/sprints/15_04-29_04.xlsx
+++ b/sprints/15_04-29_04.xlsx
@@ -1,124 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laisw\OneDrive\Documentos\Laís\ProjetoTCC\INI3A-EQ2\sprints\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEEAA9E-20C4-4303-82C7-DD0261D16B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+  <si>
+    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+  </si>
   <si>
     <t>Responsável</t>
   </si>
   <si>
-    <t>Tarefa</t>
+    <t>Programação</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>APS</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
     <t>Laís Fiori</t>
   </si>
   <si>
-    <t>Backend das telas Tópicos e Atividades</t>
-  </si>
-  <si>
-    <t>Entregas AP2 
-+ Figma</t>
+    <t>Backend das telas matéria e tópico</t>
   </si>
   <si>
     <t>Finalizado</t>
   </si>
   <si>
+    <t>Figma - Tela matérias, tópicos e atividades</t>
+  </si>
+  <si>
+    <t>Diagrama de casos de uso, casos de usos e requisitos funcionais; criação e organização do repositório do projeto; protótipo das telas</t>
+  </si>
+  <si>
+    <t>Nenhuma atividade relacionada ao tcc</t>
+  </si>
+  <si>
     <t>Luma Ramos</t>
   </si>
   <si>
+    <t>Figma - Tela configurações e perfil</t>
+  </si>
+  <si>
+    <t>Diagrama de banco de dados; protótipo das telas</t>
+  </si>
+  <si>
     <t>Luciano Luz</t>
   </si>
   <si>
-    <t>Backend das telas Login e Cadastro</t>
+    <t>Backend das telas login e cadastro</t>
+  </si>
+  <si>
+    <t>Figma - Tela flashcards; Preparação da apresentação de benchmarking</t>
+  </si>
+  <si>
+    <t>Análise de concorrentes</t>
   </si>
   <si>
     <t>Pedro Pimenta</t>
   </si>
   <si>
+    <t>Figma - Tela agenda</t>
+  </si>
+  <si>
     <t>Anna Beatriz Valderrama</t>
   </si>
   <si>
-    <t>Frontend da tela Inicial</t>
+    <t>Frontend da tela inicial; Criação dos componentes (header, rodapé...)</t>
+  </si>
+  <si>
+    <t>Figma - Tela login e cadastro</t>
+  </si>
+  <si>
+    <t>Diagrama de classes; Análise de concorrentes</t>
   </si>
   <si>
     <t>Ana Luiza Aguiar</t>
   </si>
   <si>
-    <t>Frontend das telas Login e Cadastro</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>PLANEJAMENTO 15 abr - 29 abr</t>
+    <t>Frontend das telas de login e cadastro</t>
+  </si>
+  <si>
+    <t>Figma - Tela inicial; Slides apresentação benchmarking</t>
+  </si>
+  <si>
+    <t>Entrevista - base de conhecimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -138,51 +156,58 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -194,10 +219,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -206,11 +227,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -219,86 +238,78 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -488,141 +499,231 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="25.63"/>
+    <col customWidth="1" min="2" max="2" width="31.25"/>
+    <col customWidth="1" min="3" max="3" width="11.25"/>
+    <col customWidth="1" min="4" max="4" width="40.63"/>
+    <col customWidth="1" min="5" max="5" width="11.38"/>
+    <col customWidth="1" min="6" max="6" width="43.0"/>
+    <col customWidth="1" min="7" max="7" width="10.25"/>
+    <col customWidth="1" min="8" max="8" width="17.38"/>
+    <col customWidth="1" min="9" max="9" width="10.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="48.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" ht="32.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D9" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="H9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="9">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sprints/15_04-29_04.xlsx
+++ b/sprints/15_04-29_04.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
-    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+    <t>PLANEJAMENTO 15 abr - 29 abr</t>
   </si>
   <si>
     <t>Responsável</t>
